--- a/Behavioral_results_Expt1_May2018.xlsx
+++ b/Behavioral_results_Expt1_May2018.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Caroline\Dropbox\Papers\2017_Info-seeking paper\Data_for_sharing\"/>
@@ -166,29 +166,6 @@
     <t>Info choice difference Gain-Loss</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Figure S3E-F</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> GLM predicting choice from current EV and previous outcome + excluding deterministic subjects</t>
-    </r>
-  </si>
-  <si>
     <t>NaN</t>
   </si>
   <si>
@@ -291,38 +268,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Figure S3A</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Information choice per trial - Gain block 1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Figure S3B</t>
     </r>
     <r>
@@ -375,38 +320,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>Information choice per trial - Loss block 1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Figure S3D</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Information choice per trial - Loss block 2</t>
     </r>
   </si>
   <si>
@@ -534,11 +447,98 @@
   <si>
     <t>Beta EV &amp; RT</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Figure S4E-F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> GLM predicting choice from current EV and previous outcome + excluding deterministic subjects</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Figure S4A</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Information choice per trial - Gain block 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Figure S4D</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Information choice per trial - Loss block 2</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -922,42 +922,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CB42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BQ20" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="CA10" sqref="CA10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.06640625" style="2"/>
-    <col min="4" max="4" width="10.53125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.9296875" style="2" customWidth="1"/>
-    <col min="6" max="8" width="9.06640625" style="2"/>
-    <col min="9" max="10" width="9.1328125" style="2" customWidth="1"/>
-    <col min="11" max="29" width="9.06640625" style="2"/>
-    <col min="30" max="30" width="9.9296875" style="2" customWidth="1"/>
-    <col min="31" max="42" width="9.06640625" style="2"/>
-    <col min="43" max="51" width="9.59765625" style="2" customWidth="1"/>
-    <col min="52" max="54" width="9.06640625" style="2"/>
-    <col min="55" max="72" width="10.1328125" style="2" customWidth="1"/>
-    <col min="73" max="73" width="9.06640625" style="2"/>
-    <col min="79" max="16384" width="9.06640625" style="2"/>
+    <col min="1" max="3" width="9" style="2"/>
+    <col min="4" max="4" width="10.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11" style="2" customWidth="1"/>
+    <col min="6" max="8" width="9" style="2"/>
+    <col min="9" max="10" width="9.140625" style="2" customWidth="1"/>
+    <col min="11" max="29" width="9" style="2"/>
+    <col min="30" max="30" width="10" style="2" customWidth="1"/>
+    <col min="31" max="42" width="9" style="2"/>
+    <col min="43" max="51" width="9.5703125" style="2" customWidth="1"/>
+    <col min="52" max="54" width="9" style="2"/>
+    <col min="55" max="72" width="10.140625" style="2" customWidth="1"/>
+    <col min="73" max="73" width="9" style="2"/>
+    <col min="74" max="78" width="9.140625" customWidth="1"/>
+    <col min="79" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:80" s="1" customFormat="1" ht="58.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:80" s="1" customFormat="1" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>1</v>
@@ -1023,16 +1024,16 @@
         <v>21</v>
       </c>
       <c r="AA1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="AE1" s="1" t="s">
         <v>22</v>
@@ -1098,99 +1099,99 @@
         <v>42</v>
       </c>
       <c r="AZ1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BU1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BV1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BW1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="BC1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="BT1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BX1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="BY1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="BZ1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="BX1" s="1" t="s">
+      <c r="CA1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="BY1" s="1" t="s">
+      <c r="CB1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="BZ1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="CA1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="CB1" s="1" t="s">
-        <v>122</v>
-      </c>
     </row>
-    <row r="2" spans="1:80" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C2" s="4">
         <v>26</v>
@@ -1427,12 +1428,12 @@
         <v>-0.13786356384610499</v>
       </c>
     </row>
-    <row r="3" spans="1:80" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C3" s="2">
         <v>23</v>
@@ -1669,12 +1670,12 @@
         <v>5.8481046449559003E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:80" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C4" s="2">
         <v>27</v>
@@ -1902,21 +1903,21 @@
         <v>0.54731666666666701</v>
       </c>
       <c r="BZ4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="CA4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="CB4">
         <v>1.64234693877553E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:80" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C5" s="2">
         <v>23</v>
@@ -2153,12 +2154,12 @@
         <v>-3.7911340020694503E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:80" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C6" s="2">
         <v>24</v>
@@ -2395,12 +2396,12 @@
         <v>-0.21720601014857599</v>
       </c>
     </row>
-    <row r="7" spans="1:80" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C7" s="2">
         <v>19</v>
@@ -2628,21 +2629,21 @@
         <v>0.73978333333333901</v>
       </c>
       <c r="BZ7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="CA7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="CB7">
         <v>-5.19166841323613E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:80" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>9</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C8" s="2">
         <v>23</v>
@@ -2879,12 +2880,12 @@
         <v>-6.9039988474099895E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:80" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>10</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C9" s="2">
         <v>34</v>
@@ -3112,7 +3113,7 @@
         <v>0.64226315789473598</v>
       </c>
       <c r="BZ9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="CA9">
         <v>0.67000000000000903</v>
@@ -3121,12 +3122,12 @@
         <v>6.9115804152177801E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:80" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>11</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C10" s="2">
         <v>30</v>
@@ -3363,12 +3364,12 @@
         <v>1.9226792244875501E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:80" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>12</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C11" s="2">
         <v>26</v>
@@ -3596,21 +3597,21 @@
         <v>0.75042372881355801</v>
       </c>
       <c r="BZ11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="CA11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="CB11">
         <v>-3.23578534820613E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:80" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>13</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C12" s="2">
         <v>21</v>
@@ -3838,21 +3839,21 @@
         <v>0.53704999999999703</v>
       </c>
       <c r="BZ12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="CA12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="CB12">
         <v>8.4862623120788797E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:80" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>14</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C13" s="2">
         <v>23</v>
@@ -4089,12 +4090,12 @@
         <v>-0.21399143927234399</v>
       </c>
     </row>
-    <row r="14" spans="1:80" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>15</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C14" s="2">
         <v>19</v>
@@ -4331,12 +4332,12 @@
         <v>-8.8365304720465596E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:80" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>16</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C15" s="2">
         <v>26</v>
@@ -4573,12 +4574,12 @@
         <v>5.4618093174431899E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:80" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>17</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C16" s="2">
         <v>24</v>
@@ -4815,12 +4816,12 @@
         <v>-0.18733019963124301</v>
       </c>
     </row>
-    <row r="17" spans="1:80" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>18</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C17" s="2">
         <v>21</v>
@@ -5057,12 +5058,12 @@
         <v>-3.02587138801611E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:80" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>19</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C18" s="2">
         <v>20</v>
@@ -5290,7 +5291,7 @@
         <v>0.83984210526315894</v>
       </c>
       <c r="BZ18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="CA18">
         <v>0.95199999999999796</v>
@@ -5299,12 +5300,12 @@
         <v>1.1290214461505599E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:80" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>20</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C19" s="2">
         <v>20</v>
@@ -5541,12 +5542,12 @@
         <v>-0.146970133016744</v>
       </c>
     </row>
-    <row r="20" spans="1:80" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>21</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C20" s="2">
         <v>25</v>
@@ -5783,12 +5784,12 @@
         <v>6.5102223607742898E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:80" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>22</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C21" s="2">
         <v>18</v>
@@ -6016,21 +6017,21 @@
         <v>0.65611864406780296</v>
       </c>
       <c r="BZ21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="CA21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="CB21">
         <v>-1.0017345205164599E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:80" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>23</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C22" s="2">
         <v>34</v>
@@ -6267,12 +6268,12 @@
         <v>-0.115412838320095</v>
       </c>
     </row>
-    <row r="23" spans="1:80" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>24</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C23" s="2">
         <v>31</v>
@@ -6509,12 +6510,12 @@
         <v>-9.8346827602932299E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:80" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>25</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C24" s="2">
         <v>25</v>
@@ -6751,12 +6752,12 @@
         <v>4.1449625270353299E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:80" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>26</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C25" s="2">
         <v>29</v>
@@ -6984,21 +6985,21 @@
         <v>0.50470000000000304</v>
       </c>
       <c r="BZ25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="CA25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="CB25">
         <v>-2.1924162280645001E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:80" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>27</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C26" s="2">
         <v>27</v>
@@ -7235,12 +7236,12 @@
         <v>6.1258888230507402E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:80" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>28</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C27" s="2">
         <v>31</v>
@@ -7477,12 +7478,12 @@
         <v>-2.1595111335552301E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:80" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>29</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C28" s="2">
         <v>25</v>
@@ -7707,7 +7708,7 @@
         <v>0.65671929824561404</v>
       </c>
       <c r="BY28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BZ28">
         <v>0.70599999999999596</v>
@@ -7719,12 +7720,12 @@
         <v>1.4125747722778199E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:80" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>31</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C29" s="2">
         <v>30</v>
@@ -7952,21 +7953,21 @@
         <v>0.55611666666666904</v>
       </c>
       <c r="BZ29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="CA29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="CB29">
         <v>-5.0501583949308197E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:80" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>32</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C30" s="2">
         <v>31</v>
@@ -8197,18 +8198,18 @@
         <v>0.41800000000000598</v>
       </c>
       <c r="CA30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="CB30">
         <v>-3.4411388655000701E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:80" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>33</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C31" s="2">
         <v>23</v>
@@ -8445,12 +8446,12 @@
         <v>-0.148532206969374</v>
       </c>
     </row>
-    <row r="32" spans="1:80" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>34</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C32" s="2">
         <v>29</v>
@@ -8687,12 +8688,12 @@
         <v>-5.2323125659969903E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:80" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>35</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C33" s="2">
         <v>35</v>
@@ -8929,12 +8930,12 @@
         <v>-0.29191246817374999</v>
       </c>
     </row>
-    <row r="34" spans="1:80" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>36</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C34" s="2">
         <v>22</v>
@@ -9171,12 +9172,12 @@
         <v>0.139937316789883</v>
       </c>
     </row>
-    <row r="35" spans="1:80" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>37</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C35" s="2">
         <v>24</v>
@@ -9413,12 +9414,12 @@
         <v>8.3108531264286106E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:80" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>38</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C36" s="2">
         <v>19</v>
@@ -9655,12 +9656,12 @@
         <v>-0.132338965153112</v>
       </c>
     </row>
-    <row r="37" spans="1:80" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>39</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C37" s="2">
         <v>28</v>
@@ -9888,23 +9889,23 @@
         <v>0.72845762711864404</v>
       </c>
       <c r="BZ37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="CA37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="CB37">
         <v>-5.6444710176849801E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:80" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:80" x14ac:dyDescent="0.25">
       <c r="BV38" s="2"/>
       <c r="BW38" s="2"/>
       <c r="BX38" s="2"/>
       <c r="BY38" s="2"/>
       <c r="BZ38" s="2"/>
     </row>
-    <row r="39" spans="1:80" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -9983,19 +9984,19 @@
       <c r="BY39" s="2"/>
       <c r="BZ39" s="2"/>
     </row>
-    <row r="40" spans="1:80" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:80" x14ac:dyDescent="0.25">
       <c r="BV40" s="2"/>
       <c r="BW40" s="2"/>
       <c r="BX40" s="2"/>
       <c r="BY40" s="2"/>
       <c r="BZ40" s="2"/>
     </row>
-    <row r="41" spans="1:80" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:80" x14ac:dyDescent="0.25">
       <c r="BX41" s="2"/>
       <c r="BY41" s="2"/>
       <c r="BZ41" s="2"/>
     </row>
-    <row r="42" spans="1:80" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:80" x14ac:dyDescent="0.25">
       <c r="BX42" s="2"/>
       <c r="BY42" s="2"/>
       <c r="BZ42" s="2"/>
@@ -10010,26 +10011,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DT40"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="CZ14" sqref="CZ14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.06640625" style="2"/>
-    <col min="4" max="4" width="11.73046875" style="2" customWidth="1"/>
-    <col min="5" max="124" width="5.73046875" style="2" customWidth="1"/>
-    <col min="125" max="16384" width="9.06640625" style="2"/>
+    <col min="1" max="3" width="9" style="2"/>
+    <col min="4" max="4" width="11.7109375" style="2" customWidth="1"/>
+    <col min="5" max="124" width="5.7109375" style="2" customWidth="1"/>
+    <col min="125" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:124" ht="62.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:124" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="14" t="s">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
       <c r="E1" s="15" t="s">
-        <v>78</v>
+        <v>121</v>
       </c>
       <c r="F1" s="15"/>
       <c r="G1" s="15"/>
@@ -10061,7 +10062,7 @@
       <c r="AG1" s="15"/>
       <c r="AH1" s="15"/>
       <c r="AI1" s="15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AJ1" s="15"/>
       <c r="AK1" s="15"/>
@@ -10093,7 +10094,7 @@
       <c r="BK1" s="15"/>
       <c r="BL1" s="15"/>
       <c r="BM1" s="15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="BN1" s="15"/>
       <c r="BO1" s="15"/>
@@ -10125,7 +10126,7 @@
       <c r="CO1" s="15"/>
       <c r="CP1" s="15"/>
       <c r="CQ1" s="15" t="s">
-        <v>81</v>
+        <v>122</v>
       </c>
       <c r="CR1" s="15"/>
       <c r="CS1" s="15"/>
@@ -10157,7 +10158,7 @@
       <c r="DS1" s="15"/>
       <c r="DT1" s="15"/>
     </row>
-    <row r="2" spans="1:124" s="10" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:124" s="10" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -10171,367 +10172,367 @@
         <v>45</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AD2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AF2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AG2" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AH2" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="AH2" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="AI2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AJ2" s="1" t="s">
+      <c r="AK2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AK2" s="1" t="s">
+      <c r="AL2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AL2" s="1" t="s">
+      <c r="AM2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AM2" s="1" t="s">
+      <c r="AN2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AN2" s="1" t="s">
+      <c r="AO2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AO2" s="1" t="s">
+      <c r="AP2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AP2" s="1" t="s">
+      <c r="AQ2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AQ2" s="1" t="s">
+      <c r="AR2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AR2" s="1" t="s">
+      <c r="AS2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AS2" s="1" t="s">
+      <c r="AT2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AT2" s="1" t="s">
+      <c r="AU2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AU2" s="1" t="s">
+      <c r="AV2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AV2" s="1" t="s">
+      <c r="AW2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AW2" s="1" t="s">
+      <c r="AX2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AX2" s="1" t="s">
+      <c r="AY2" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AY2" s="1" t="s">
+      <c r="AZ2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AZ2" s="1" t="s">
+      <c r="BA2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="BA2" s="1" t="s">
+      <c r="BB2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="BB2" s="1" t="s">
+      <c r="BC2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="BC2" s="1" t="s">
+      <c r="BD2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="BD2" s="1" t="s">
+      <c r="BE2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="BE2" s="1" t="s">
+      <c r="BF2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="BF2" s="1" t="s">
+      <c r="BG2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="BG2" s="1" t="s">
+      <c r="BH2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="BH2" s="1" t="s">
+      <c r="BI2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="BI2" s="1" t="s">
+      <c r="BJ2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="BJ2" s="1" t="s">
+      <c r="BK2" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="BK2" s="1" t="s">
+      <c r="BL2" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="BL2" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="BM2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="BN2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="BN2" s="1" t="s">
+      <c r="BO2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="BO2" s="1" t="s">
+      <c r="BP2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="BP2" s="1" t="s">
+      <c r="BQ2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BQ2" s="1" t="s">
+      <c r="BR2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="BR2" s="1" t="s">
+      <c r="BS2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="BS2" s="1" t="s">
+      <c r="BT2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="BT2" s="1" t="s">
+      <c r="BU2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="BU2" s="1" t="s">
+      <c r="BV2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="BV2" s="1" t="s">
+      <c r="BW2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="BW2" s="1" t="s">
+      <c r="BX2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="BX2" s="1" t="s">
+      <c r="BY2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="BY2" s="1" t="s">
+      <c r="BZ2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BZ2" s="1" t="s">
+      <c r="CA2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="CA2" s="1" t="s">
+      <c r="CB2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="CB2" s="1" t="s">
+      <c r="CC2" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="CC2" s="1" t="s">
+      <c r="CD2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="CD2" s="1" t="s">
+      <c r="CE2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="CE2" s="1" t="s">
+      <c r="CF2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="CF2" s="1" t="s">
+      <c r="CG2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="CG2" s="1" t="s">
+      <c r="CH2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="CH2" s="1" t="s">
+      <c r="CI2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="CI2" s="1" t="s">
+      <c r="CJ2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="CJ2" s="1" t="s">
+      <c r="CK2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="CK2" s="1" t="s">
+      <c r="CL2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="CL2" s="1" t="s">
+      <c r="CM2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="CM2" s="1" t="s">
+      <c r="CN2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="CN2" s="1" t="s">
+      <c r="CO2" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="CO2" s="1" t="s">
+      <c r="CP2" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="CP2" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="CQ2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="CR2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="CR2" s="1" t="s">
+      <c r="CS2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="CS2" s="1" t="s">
+      <c r="CT2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="CT2" s="1" t="s">
+      <c r="CU2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="CU2" s="1" t="s">
+      <c r="CV2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="CV2" s="1" t="s">
+      <c r="CW2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="CW2" s="1" t="s">
+      <c r="CX2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="CX2" s="1" t="s">
+      <c r="CY2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="CY2" s="1" t="s">
+      <c r="CZ2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="CZ2" s="1" t="s">
+      <c r="DA2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="DA2" s="1" t="s">
+      <c r="DB2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="DB2" s="1" t="s">
+      <c r="DC2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="DC2" s="1" t="s">
+      <c r="DD2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="DD2" s="1" t="s">
+      <c r="DE2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="DE2" s="1" t="s">
+      <c r="DF2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="DF2" s="1" t="s">
+      <c r="DG2" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="DG2" s="1" t="s">
+      <c r="DH2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="DH2" s="1" t="s">
+      <c r="DI2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="DI2" s="1" t="s">
+      <c r="DJ2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="DJ2" s="1" t="s">
+      <c r="DK2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="DK2" s="1" t="s">
+      <c r="DL2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="DL2" s="1" t="s">
+      <c r="DM2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="DM2" s="1" t="s">
+      <c r="DN2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="DN2" s="1" t="s">
+      <c r="DO2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="DO2" s="1" t="s">
+      <c r="DP2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="DP2" s="1" t="s">
+      <c r="DQ2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="DQ2" s="1" t="s">
+      <c r="DR2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="DR2" s="1" t="s">
+      <c r="DS2" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="DS2" s="1" t="s">
+      <c r="DT2" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="DT2" s="1" t="s">
-        <v>77</v>
-      </c>
     </row>
-    <row r="3" spans="1:124" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:124" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -10827,7 +10828,7 @@
         <v>1</v>
       </c>
       <c r="CU3" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="CV3" s="2">
         <v>1</v>
@@ -10905,7 +10906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:124" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:124" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -11279,7 +11280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:124" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:124" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -11646,7 +11647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:124" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:124" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -11828,7 +11829,7 @@
         <v>1</v>
       </c>
       <c r="BI6" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BJ6" s="2">
         <v>1</v>
@@ -11978,7 +11979,7 @@
         <v>1</v>
       </c>
       <c r="DG6" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="DH6" s="2">
         <v>1</v>
@@ -12020,7 +12021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:124" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:124" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -12058,7 +12059,7 @@
         <v>1</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N7" s="2">
         <v>1</v>
@@ -12067,7 +12068,7 @@
         <v>1</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q7" s="2">
         <v>1</v>
@@ -12085,7 +12086,7 @@
         <v>1</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="W7" s="2">
         <v>1</v>
@@ -12109,7 +12110,7 @@
         <v>1</v>
       </c>
       <c r="AD7" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AE7" s="2">
         <v>1</v>
@@ -12118,7 +12119,7 @@
         <v>1</v>
       </c>
       <c r="AG7" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AH7" s="2">
         <v>1</v>
@@ -12127,7 +12128,7 @@
         <v>1</v>
       </c>
       <c r="AJ7" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AK7" s="2">
         <v>1</v>
@@ -12157,13 +12158,13 @@
         <v>1</v>
       </c>
       <c r="AT7" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AU7" s="2">
         <v>1</v>
       </c>
       <c r="AV7" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AW7" s="2">
         <v>1</v>
@@ -12193,13 +12194,13 @@
         <v>1</v>
       </c>
       <c r="BF7" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BG7" s="2">
         <v>1</v>
       </c>
       <c r="BH7" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BI7" s="2">
         <v>1</v>
@@ -12247,7 +12248,7 @@
         <v>1</v>
       </c>
       <c r="BX7" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BY7" s="2">
         <v>1</v>
@@ -12277,7 +12278,7 @@
         <v>1</v>
       </c>
       <c r="CH7" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="CI7" s="2">
         <v>1</v>
@@ -12289,7 +12290,7 @@
         <v>1</v>
       </c>
       <c r="CL7" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="CM7" s="2">
         <v>1</v>
@@ -12343,19 +12344,19 @@
         <v>0</v>
       </c>
       <c r="DD7" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="DE7" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="DF7" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="DG7" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="DH7" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="DI7" s="2">
         <v>1</v>
@@ -12385,7 +12386,7 @@
         <v>1</v>
       </c>
       <c r="DR7" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="DS7" s="2">
         <v>1</v>
@@ -12394,7 +12395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:124" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:124" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -12485,7 +12486,7 @@
         <v>1</v>
       </c>
       <c r="AG8" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AH8" s="2">
         <v>1</v>
@@ -12539,7 +12540,7 @@
         <v>1</v>
       </c>
       <c r="AY8" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AZ8" s="2">
         <v>1</v>
@@ -12761,7 +12762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:124" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:124" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>9</v>
       </c>
@@ -12805,7 +12806,7 @@
         <v>0</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P9" s="2">
         <v>0</v>
@@ -13135,7 +13136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:124" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:124" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>10</v>
       </c>
@@ -13485,7 +13486,7 @@
         <v>1</v>
       </c>
       <c r="DM10" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="DN10" s="2">
         <v>1</v>
@@ -13509,7 +13510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:124" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:124" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -13544,13 +13545,13 @@
         <v>1</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M11" s="2">
         <v>0</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O11" s="2">
         <v>1</v>
@@ -13574,7 +13575,7 @@
         <v>1</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="W11" s="2">
         <v>1</v>
@@ -13607,10 +13608,10 @@
         <v>1</v>
       </c>
       <c r="AG11" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AH11" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AI11" s="2">
         <v>1</v>
@@ -13619,13 +13620,13 @@
         <v>1</v>
       </c>
       <c r="AK11" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AL11" s="2">
         <v>1</v>
       </c>
       <c r="AM11" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AN11" s="2">
         <v>1</v>
@@ -13652,22 +13653,22 @@
         <v>1</v>
       </c>
       <c r="AV11" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AW11" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AX11" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AY11" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AZ11" s="2">
         <v>1</v>
       </c>
       <c r="BA11" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BB11" s="2">
         <v>1</v>
@@ -13688,7 +13689,7 @@
         <v>1</v>
       </c>
       <c r="BH11" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BI11" s="2">
         <v>1</v>
@@ -13742,7 +13743,7 @@
         <v>1</v>
       </c>
       <c r="BZ11" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="CA11" s="2">
         <v>1</v>
@@ -13769,7 +13770,7 @@
         <v>1</v>
       </c>
       <c r="CI11" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="CJ11" s="2">
         <v>0</v>
@@ -13784,7 +13785,7 @@
         <v>0</v>
       </c>
       <c r="CN11" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="CO11" s="2">
         <v>0</v>
@@ -13793,7 +13794,7 @@
         <v>1</v>
       </c>
       <c r="CQ11" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="CR11" s="2">
         <v>0</v>
@@ -13805,16 +13806,16 @@
         <v>1</v>
       </c>
       <c r="CU11" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="CV11" s="2">
         <v>1</v>
       </c>
       <c r="CW11" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="CX11" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="CY11" s="2">
         <v>1</v>
@@ -13823,16 +13824,16 @@
         <v>1</v>
       </c>
       <c r="DA11" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="DB11" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="DC11" s="2">
         <v>1</v>
       </c>
       <c r="DD11" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="DE11" s="2">
         <v>1</v>
@@ -13877,13 +13878,13 @@
         <v>1</v>
       </c>
       <c r="DS11" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="DT11" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:124" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:124" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>12</v>
       </c>
@@ -14019,7 +14020,7 @@
         <v>1</v>
       </c>
       <c r="AV12" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AW12" s="2">
         <v>1</v>
@@ -14034,7 +14035,7 @@
         <v>1</v>
       </c>
       <c r="BA12" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BB12" s="2">
         <v>1</v>
@@ -14136,7 +14137,7 @@
         <v>1</v>
       </c>
       <c r="CI12" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="CJ12" s="2">
         <v>1</v>
@@ -14250,7 +14251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:124" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:124" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>13</v>
       </c>
@@ -14617,7 +14618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:124" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:124" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>14</v>
       </c>
@@ -14769,7 +14770,7 @@
         <v>1</v>
       </c>
       <c r="AY14" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AZ14" s="2">
         <v>1</v>
@@ -14898,7 +14899,7 @@
         <v>1</v>
       </c>
       <c r="CP14" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="CQ14" s="2">
         <v>0</v>
@@ -14991,7 +14992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:124" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:124" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>15</v>
       </c>
@@ -15008,7 +15009,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
@@ -15017,22 +15018,22 @@
         <v>1</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M15" s="2">
         <v>1</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O15" s="2">
         <v>1</v>
@@ -15041,7 +15042,7 @@
         <v>1</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R15" s="2">
         <v>1</v>
@@ -15056,16 +15057,16 @@
         <v>1</v>
       </c>
       <c r="V15" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="W15" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="X15" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Y15" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Z15" s="2">
         <v>1</v>
@@ -15077,19 +15078,19 @@
         <v>1</v>
       </c>
       <c r="AC15" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AD15" s="2">
         <v>1</v>
       </c>
       <c r="AE15" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AF15" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AG15" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AH15" s="2">
         <v>1</v>
@@ -15113,7 +15114,7 @@
         <v>1</v>
       </c>
       <c r="AO15" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AP15" s="2">
         <v>1</v>
@@ -15143,7 +15144,7 @@
         <v>1</v>
       </c>
       <c r="AY15" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AZ15" s="2">
         <v>1</v>
@@ -15152,7 +15153,7 @@
         <v>1</v>
       </c>
       <c r="BB15" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BC15" s="2">
         <v>1</v>
@@ -15176,7 +15177,7 @@
         <v>1</v>
       </c>
       <c r="BJ15" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BK15" s="2">
         <v>1</v>
@@ -15230,7 +15231,7 @@
         <v>1</v>
       </c>
       <c r="CB15" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="CC15" s="2">
         <v>1</v>
@@ -15254,7 +15255,7 @@
         <v>1</v>
       </c>
       <c r="CJ15" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="CK15" s="2">
         <v>1</v>
@@ -15263,7 +15264,7 @@
         <v>1</v>
       </c>
       <c r="CM15" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="CN15" s="2">
         <v>1</v>
@@ -15350,7 +15351,7 @@
         <v>1</v>
       </c>
       <c r="DP15" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="DQ15" s="2">
         <v>1</v>
@@ -15365,7 +15366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:124" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:124" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>16</v>
       </c>
@@ -15739,7 +15740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:124" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:124" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>17</v>
       </c>
@@ -15813,7 +15814,7 @@
         <v>1</v>
       </c>
       <c r="Y17" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Z17" s="2">
         <v>1</v>
@@ -16035,7 +16036,7 @@
         <v>1</v>
       </c>
       <c r="CU17" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="CV17" s="2">
         <v>0</v>
@@ -16053,7 +16054,7 @@
         <v>0</v>
       </c>
       <c r="DA17" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="DB17" s="2">
         <v>1</v>
@@ -16113,7 +16114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:124" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:124" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>18</v>
       </c>
@@ -16256,7 +16257,7 @@
         <v>1</v>
       </c>
       <c r="AV18" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AW18" s="2">
         <v>0</v>
@@ -16298,7 +16299,7 @@
         <v>1</v>
       </c>
       <c r="BJ18" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BK18" s="2">
         <v>0</v>
@@ -16364,7 +16365,7 @@
         <v>1</v>
       </c>
       <c r="CF18" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="CG18" s="2">
         <v>0</v>
@@ -16487,7 +16488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:124" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:124" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>19</v>
       </c>
@@ -16654,7 +16655,7 @@
         <v>1</v>
       </c>
       <c r="BD19" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BE19" s="2">
         <v>1</v>
@@ -16807,7 +16808,7 @@
         <v>1</v>
       </c>
       <c r="DC19" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="DD19" s="2">
         <v>1</v>
@@ -16816,7 +16817,7 @@
         <v>1</v>
       </c>
       <c r="DF19" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="DG19" s="2">
         <v>1</v>
@@ -16861,7 +16862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:124" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:124" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>20</v>
       </c>
@@ -17163,7 +17164,7 @@
         <v>0</v>
       </c>
       <c r="CW20" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="CX20" s="2">
         <v>1</v>
@@ -17214,7 +17215,7 @@
         <v>1</v>
       </c>
       <c r="DN20" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="DO20" s="2">
         <v>1</v>
@@ -17235,7 +17236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:124" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:124" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>21</v>
       </c>
@@ -17285,7 +17286,7 @@
         <v>0</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R21" s="2">
         <v>1</v>
@@ -17294,7 +17295,7 @@
         <v>1</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U21" s="2">
         <v>1</v>
@@ -17465,7 +17466,7 @@
         <v>0</v>
       </c>
       <c r="BY21" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BZ21" s="2">
         <v>0</v>
@@ -17609,7 +17610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:124" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:124" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>22</v>
       </c>
@@ -17922,7 +17923,7 @@
         <v>1</v>
       </c>
       <c r="DC22" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="DD22" s="2">
         <v>1</v>
@@ -17976,7 +17977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:124" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:124" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>23</v>
       </c>
@@ -17999,7 +18000,7 @@
         <v>1</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I23" s="2">
         <v>1</v>
@@ -18020,19 +18021,19 @@
         <v>1</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P23" s="2">
         <v>1</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R23" s="2">
         <v>1</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="T23" s="2">
         <v>1</v>
@@ -18041,7 +18042,7 @@
         <v>0</v>
       </c>
       <c r="V23" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="W23" s="2">
         <v>1</v>
@@ -18092,7 +18093,7 @@
         <v>1</v>
       </c>
       <c r="AM23" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AN23" s="2">
         <v>1</v>
@@ -18140,7 +18141,7 @@
         <v>1</v>
       </c>
       <c r="BC23" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BD23" s="2">
         <v>1</v>
@@ -18251,7 +18252,7 @@
         <v>1</v>
       </c>
       <c r="CN23" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="CO23" s="2">
         <v>1</v>
@@ -18287,7 +18288,7 @@
         <v>1</v>
       </c>
       <c r="CZ23" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="DA23" s="2">
         <v>1</v>
@@ -18302,13 +18303,13 @@
         <v>0</v>
       </c>
       <c r="DE23" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="DF23" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="DG23" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="DH23" s="2">
         <v>1</v>
@@ -18320,19 +18321,19 @@
         <v>0</v>
       </c>
       <c r="DK23" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="DL23" s="2">
         <v>1</v>
       </c>
       <c r="DM23" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="DN23" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="DO23" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="DP23" s="2">
         <v>1</v>
@@ -18350,7 +18351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:124" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:124" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>24</v>
       </c>
@@ -18430,13 +18431,13 @@
         <v>0</v>
       </c>
       <c r="AA24" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AB24" s="2">
         <v>1</v>
       </c>
       <c r="AC24" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AD24" s="2">
         <v>1</v>
@@ -18466,7 +18467,7 @@
         <v>1</v>
       </c>
       <c r="AM24" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AN24" s="2">
         <v>1</v>
@@ -18667,7 +18668,7 @@
         <v>0</v>
       </c>
       <c r="DB24" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="DC24" s="2">
         <v>0</v>
@@ -18724,7 +18725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:124" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:124" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>25</v>
       </c>
@@ -18801,7 +18802,7 @@
         <v>1</v>
       </c>
       <c r="Z25" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AA25" s="2">
         <v>1</v>
@@ -18873,7 +18874,7 @@
         <v>1</v>
       </c>
       <c r="AX25" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AY25" s="2">
         <v>1</v>
@@ -18939,7 +18940,7 @@
         <v>1</v>
       </c>
       <c r="BT25" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BU25" s="2">
         <v>1</v>
@@ -18996,7 +18997,7 @@
         <v>1</v>
       </c>
       <c r="CM25" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="CN25" s="2">
         <v>1</v>
@@ -19047,7 +19048,7 @@
         <v>1</v>
       </c>
       <c r="DD25" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="DE25" s="2">
         <v>1</v>
@@ -19068,7 +19069,7 @@
         <v>1</v>
       </c>
       <c r="DK25" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="DL25" s="2">
         <v>1</v>
@@ -19098,7 +19099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:124" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:124" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>26</v>
       </c>
@@ -19252,7 +19253,7 @@
         <v>1</v>
       </c>
       <c r="BB26" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BC26" s="2">
         <v>1</v>
@@ -19465,7 +19466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:124" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:124" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>27</v>
       </c>
@@ -19539,7 +19540,7 @@
         <v>1</v>
       </c>
       <c r="Y27" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Z27" s="2">
         <v>1</v>
@@ -19599,7 +19600,7 @@
         <v>1</v>
       </c>
       <c r="AS27" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AT27" s="2">
         <v>1</v>
@@ -19662,7 +19663,7 @@
         <v>1</v>
       </c>
       <c r="BN27" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BO27" s="2">
         <v>1</v>
@@ -19839,7 +19840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:124" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:124" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>28</v>
       </c>
@@ -20045,7 +20046,7 @@
         <v>1</v>
       </c>
       <c r="BQ28" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BR28" s="2">
         <v>1</v>
@@ -20183,7 +20184,7 @@
         <v>1</v>
       </c>
       <c r="DK28" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="DL28" s="2">
         <v>0</v>
@@ -20213,7 +20214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:124" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:124" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>29</v>
       </c>
@@ -20284,7 +20285,7 @@
         <v>1</v>
       </c>
       <c r="AA29" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AB29" s="2">
         <v>1</v>
@@ -20359,7 +20360,7 @@
         <v>1</v>
       </c>
       <c r="AZ29" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BA29" s="2">
         <v>1</v>
@@ -20422,7 +20423,7 @@
         <v>0</v>
       </c>
       <c r="BU29" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BV29" s="2">
         <v>0</v>
@@ -20542,7 +20543,7 @@
         <v>0</v>
       </c>
       <c r="DI29" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="DJ29" s="2">
         <v>0</v>
@@ -20578,7 +20579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:124" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:124" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>31</v>
       </c>
@@ -20945,7 +20946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:124" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:124" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>32</v>
       </c>
@@ -21091,7 +21092,7 @@
         <v>1</v>
       </c>
       <c r="AW31" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AX31" s="2">
         <v>1</v>
@@ -21319,7 +21320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:124" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:124" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>33</v>
       </c>
@@ -21693,7 +21694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:124" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:124" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>34</v>
       </c>
@@ -22067,7 +22068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:124" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:124" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>35</v>
       </c>
@@ -22183,7 +22184,7 @@
         <v>1</v>
       </c>
       <c r="AM34" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AN34" s="2">
         <v>1</v>
@@ -22213,7 +22214,7 @@
         <v>1</v>
       </c>
       <c r="AW34" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AX34" s="2">
         <v>1</v>
@@ -22258,7 +22259,7 @@
         <v>1</v>
       </c>
       <c r="BL34" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BM34" s="2">
         <v>1</v>
@@ -22321,7 +22322,7 @@
         <v>0</v>
       </c>
       <c r="CG34" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="CH34" s="2">
         <v>0</v>
@@ -22441,7 +22442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:124" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:124" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>36</v>
       </c>
@@ -22563,7 +22564,7 @@
         <v>1</v>
       </c>
       <c r="AO35" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AP35" s="2">
         <v>1</v>
@@ -22596,13 +22597,13 @@
         <v>1</v>
       </c>
       <c r="AZ35" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BA35" s="2">
         <v>1</v>
       </c>
       <c r="BB35" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BC35" s="2">
         <v>1</v>
@@ -22617,7 +22618,7 @@
         <v>1</v>
       </c>
       <c r="BG35" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BH35" s="2">
         <v>1</v>
@@ -22815,7 +22816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:124" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:124" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>37</v>
       </c>
@@ -22886,7 +22887,7 @@
         <v>0</v>
       </c>
       <c r="X36" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Y36" s="2">
         <v>1</v>
@@ -23189,7 +23190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:124" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:124" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>38</v>
       </c>
@@ -23563,7 +23564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:124" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:124" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>39</v>
       </c>
@@ -23748,7 +23749,7 @@
         <v>1</v>
       </c>
       <c r="BM38" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BN38" s="2">
         <v>1</v>
@@ -23928,7 +23929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:124" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:124" x14ac:dyDescent="0.25">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
@@ -24073,28 +24074,28 @@
       <selection activeCell="AD5" sqref="AD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.06640625" style="2"/>
-    <col min="4" max="4" width="10.73046875" style="2" customWidth="1"/>
-    <col min="5" max="27" width="9.06640625" style="2"/>
-    <col min="28" max="28" width="10.73046875" style="2" customWidth="1"/>
-    <col min="29" max="47" width="11.3984375" style="2" customWidth="1"/>
-    <col min="48" max="16384" width="9.06640625" style="2"/>
+    <col min="1" max="3" width="9" style="2"/>
+    <col min="4" max="4" width="10.7109375" style="2" customWidth="1"/>
+    <col min="5" max="27" width="9" style="2"/>
+    <col min="28" max="28" width="10.7109375" style="2" customWidth="1"/>
+    <col min="29" max="47" width="11.42578125" style="2" customWidth="1"/>
+    <col min="48" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" ht="58.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:47" ht="58.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -24157,79 +24158,79 @@
         <v>21</v>
       </c>
       <c r="Y1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="Z1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>111</v>
-      </c>
       <c r="AC1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="AU1" s="1"/>
     </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>101</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C2" s="13">
         <v>23</v>
@@ -24364,12 +24365,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>102</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C3" s="13">
         <v>22</v>
@@ -24504,12 +24505,12 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>103</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C4" s="13">
         <v>21</v>
@@ -24644,12 +24645,12 @@
         <v>0.17142857142857101</v>
       </c>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>104</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C5" s="13">
         <v>20</v>
@@ -24784,12 +24785,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>105</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C6" s="13">
         <v>22</v>
@@ -24924,12 +24925,12 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>106</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C7" s="13">
         <v>19</v>
@@ -25064,12 +25065,12 @@
         <v>8.5714285714285701E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>107</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C8" s="13">
         <v>20</v>
@@ -25204,12 +25205,12 @@
         <v>4.2857142857142899E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>108</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C9" s="13">
         <v>21</v>
@@ -25344,12 +25345,12 @@
         <v>0.17142857142857101</v>
       </c>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>109</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C10" s="13">
         <v>32</v>
@@ -25484,12 +25485,12 @@
         <v>8.5714285714285701E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>110</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C11" s="13">
         <v>25</v>
@@ -25624,12 +25625,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>201</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C12" s="13">
         <v>21</v>
@@ -25764,12 +25765,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>202</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C13" s="13">
         <v>22</v>
@@ -25904,12 +25905,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>203</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C14" s="13">
         <v>19</v>
@@ -26044,12 +26045,12 @@
         <v>0.22500000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>204</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C15" s="13">
         <v>20</v>
@@ -26184,12 +26185,12 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>205</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C16" s="13">
         <v>32</v>
@@ -26324,12 +26325,12 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>206</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C17" s="13">
         <v>32</v>
@@ -26464,12 +26465,12 @@
         <v>0.22500000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>207</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C18" s="13">
         <v>27</v>
@@ -26604,12 +26605,12 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="19" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>208</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C19" s="13">
         <v>20</v>
@@ -26744,12 +26745,12 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="20" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>209</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C20" s="13">
         <v>18</v>
@@ -26884,12 +26885,12 @@
         <v>0.22500000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>210</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C21" s="13">
         <v>20</v>
@@ -27024,12 +27025,12 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>301</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C22" s="12">
         <v>20</v>
@@ -27164,12 +27165,12 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>302</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C23" s="12">
         <v>29</v>
@@ -27304,12 +27305,12 @@
         <v>4.2857142857142899E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>303</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C24" s="12">
         <v>20</v>
@@ -27444,12 +27445,12 @@
         <v>0.128571428571429</v>
       </c>
     </row>
-    <row r="25" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>304</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C25" s="12">
         <v>20</v>
@@ -27584,12 +27585,12 @@
         <v>0.128571428571429</v>
       </c>
     </row>
-    <row r="26" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>305</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C26" s="12">
         <v>21</v>
@@ -27724,12 +27725,12 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="27" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>306</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C27" s="12">
         <v>20</v>
@@ -27864,7 +27865,7 @@
         <v>0.25714285714285701</v>
       </c>
     </row>
-    <row r="29" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A29" s="10"/>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
